--- a/medicine/Mort/Nécropole_nationale_de_Tracy-le-Mont/Nécropole_nationale_de_Tracy-le-Mont.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Tracy-le-Mont/Nécropole_nationale_de_Tracy-le-Mont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Tracy-le-Mont</t>
+          <t>Nécropole_nationale_de_Tracy-le-Mont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Tracy-le-Mont est un cimetière militaire  de la Première Guerre mondiale situé sur le territoire de la commune de Tracy-le-Mont dans le département de l'Oise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Tracy-le-Mont</t>
+          <t>Nécropole_nationale_de_Tracy-le-Mont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Tracy-le-Mont, créée en 1920. Les dépouilles de soldats provenant des cimetières de Beaulieu-les-Fontaines, Berry, Confrécourt, Nampcel, Ognolles, Saint-Crépin-aux-Bois et des cimetières militaires du « Poste Picard », du « Point T », de « l'Ecafaut », des « Bretons » et des « Zouaves » y ont été rassemblées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Tracy-le-Mont, créée en 1920. Les dépouilles de soldats provenant des cimetières de Beaulieu-les-Fontaines, Berry, Confrécourt, Nampcel, Ognolles, Saint-Crépin-aux-Bois et des cimetières militaires du « Poste Picard », du « Point T », de « l'Ecafaut », des « Bretons » et des « Zouaves » y ont été rassemblées.
 En 1973, des corps exhumés du carré militaire du cimetière communal de Tracy-le-Mont y ont été transférés.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Tracy-le-Mont</t>
+          <t>Nécropole_nationale_de_Tracy-le-Mont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire français est situé en bordure d'une petite route, avant d'arriver au village en provenance de la ferme de Quennevières. Cette nécropole de 1,36 ha compte 3 196 corps dont 1 313 en ossuaire[2]. Se trouve également dans la nécropole la tombe d'un soldat français tué au cours de la Seconde Guerre mondiale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire français est situé en bordure d'une petite route, avant d'arriver au village en provenance de la ferme de Quennevières. Cette nécropole de 1,36 ha compte 3 196 corps dont 1 313 en ossuaire. Se trouve également dans la nécropole la tombe d'un soldat français tué au cours de la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
